--- a/supervision-app-backend/supervision_forms_bagmati_export.xlsx
+++ b/supervision-app-backend/supervision_forms_bagmati_export.xlsx
@@ -43,7 +43,7 @@
     <t>Export Info:</t>
   </si>
   <si>
-    <t>Export: 2 forms | Filters: {"province":"Bagmati Province"} | Generated: 8/22/2025, 3:09:25 PM</t>
+    <t>Export: 2 forms | Filters: {"province":"Bagmati Province"} | Generated: 8/22/2025, 10:10:02 PM</t>
   </si>
   <si>
     <t>Rural Health Post Bhaktapur</t>
@@ -853,7 +853,7 @@
     <t>Export Generated</t>
   </si>
   <si>
-    <t>8/22/2025, 3:09:25 PM</t>
+    <t>8/22/2025, 10:10:02 PM</t>
   </si>
   <si>
     <t>Applied Filters:</t>
